--- a/medicine/Psychotrope/Maurice_Lespiault/Maurice_Lespiault.xlsx
+++ b/medicine/Psychotrope/Maurice_Lespiault/Maurice_Lespiault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Maurice Lespiault, né à Nérac le 27 juin 1821[1] et mort dans la même commune le 6 février 1889[2], est un naturaliste, peintre et photographe français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Maurice Lespiault, né à Nérac le 27 juin 1821 et mort dans la même commune le 6 février 1889, est un naturaliste, peintre et photographe français.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Maurice Lespiault est issu d’une ancienne famille néracaise, des Lespiault sont cités à Nérac dès le XVIe siècle, dont un a été prédicateur de la reine de Navarre. Son grand-père, Gabriel était suppléant de la sénéchaussée de Nérac aux états généraux. Sa famille possédait de nombreux biens à Nérac, dont le château de Saint-Martin.
-Maurice Lespiault a été conseiller municipal de Nérac, un des membres fondateurs du comice agricole et viticole de l’arrondissement[3]. Il est dit vigneron, mais aussi naturaliste, peintre d’histoire naturelle, mycologue, aquarelliste et photographe ; il a reçu une mention honorable pour ses épreuves photographiques à l'Exposition universelle de 1855[4].
+Maurice Lespiault a été conseiller municipal de Nérac, un des membres fondateurs du comice agricole et viticole de l’arrondissement. Il est dit vigneron, mais aussi naturaliste, peintre d’histoire naturelle, mycologue, aquarelliste et photographe ; il a reçu une mention honorable pour ses épreuves photographiques à l'Exposition universelle de 1855.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est l’auteur de nombreuses notes et études sur les champignons, les plantes, la vigne. Il a créé, entre 1844 et 1862, un herbier déposé à la médiathèque de Nérac en Lot-et-Garonne. Il a surtout participé à la lutte contre les maladies de la vigne à partir de 1862 et le phylloxéra en 1872. Il était président au congrès international de Bordeaux en octobre 1881. Sa propriété de la Facherie à Nérac sera la seule à être visitée pour la préparation de ce congrès. Il est aussi à l’origine de la création d’une pépinière de plants américains sous l’égide du comice agricole (cépages Elvira, Noah, Herbemont, Cynthiana, Rulander et Othello).
 Il a collaboré à la rédaction de La Guirlande des Marguerites en écrivant trente-deux sonnets. Plusieurs aquarelles lui sont dues.
